--- a/logs/20251181420_TEST_CraneOut.xlsx
+++ b/logs/20251181420_TEST_CraneOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1310\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan\Documents\Unreal Projects\UnrealPythonTools\CraneGame\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBBDDE58-C1F1-4809-B9D0-7D97B9E35D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CE6103-CEED-4CCB-8054-F0A3AC092F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{151AC572-A4F2-4F37-BE53-0CC8A1B64009}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{151AC572-A4F2-4F37-BE53-0CC8A1B64009}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,11 +950,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D72CF04-50BB-4F30-A0A6-1C7009A07610}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
